--- a/DatasetRichter_onboard.xlsx
+++ b/DatasetRichter_onboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/amr8004_psu_edu/Documents/ULTERA-Richter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xander\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{FD1939D1-6A67-7B41-BA20-173BA948657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D26CBDA2-6F1C-423E-8394-82081DA586B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66376896-8355-41F0-91FC-990830051588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20736" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>Metadata</t>
   </si>
@@ -344,27 +344,18 @@
     <t>HCP</t>
   </si>
   <si>
-    <t>10.2320/matertrans.MT-M2019213</t>
-  </si>
-  <si>
     <t>MT-C</t>
   </si>
   <si>
     <t>Ir29.0678 Rh29.0678 Ru11.8644 W15 Mo15</t>
   </si>
   <si>
-    <t>10.2320/matertrans.MT-M2019214</t>
-  </si>
-  <si>
     <t>MT-D</t>
   </si>
   <si>
     <t>Ir34.8814 Rh34.8814 Ru14.2373 W8 Mo8</t>
   </si>
   <si>
-    <t>10.2320/matertrans.MT-M2019215</t>
-  </si>
-  <si>
     <t>MT-E</t>
   </si>
   <si>
@@ -374,13 +365,13 @@
     <t>FCC</t>
   </si>
   <si>
-    <t>10.2320/matertrans.MT-M2019216</t>
-  </si>
-  <si>
     <t>MT-Cprime</t>
   </si>
   <si>
     <t>annealed at 1273K for 200h</t>
+  </si>
+  <si>
+    <t>T2</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1053,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1111,33 +1129,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1423,28 +1414,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D15"/>
+    <sheetView tabSelected="1" topLeftCell="I8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" customWidth="1"/>
-    <col min="15" max="15" width="39.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" customWidth="1"/>
+    <col min="14" max="14" width="34.7265625" customWidth="1"/>
+    <col min="15" max="15" width="39.26953125" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1"/>
     <col min="17" max="18" width="18" customWidth="1"/>
-    <col min="19" max="20" width="17.42578125" customWidth="1"/>
+    <col min="19" max="20" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,39 +1450,39 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1502,50 +1493,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="21.6" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" ht="21.65" customHeight="1" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1556,21 +1547,21 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="61"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.95" thickBot="1">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:20" ht="16" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1613,7 +1604,7 @@
       <c r="N7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="62"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="32" t="s">
         <v>36</v>
       </c>
@@ -1624,39 +1615,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="57"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="65"/>
-    </row>
-    <row r="9" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+    </row>
+    <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1739,7 +1730,9 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="20" t="s">
         <v>68</v>
       </c>
@@ -1768,18 +1761,20 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="34"/>
+      <c r="M11" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N11" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>71</v>
@@ -1797,18 +1792,20 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N12" s="20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>71</v>
@@ -1826,21 +1823,23 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N13" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>66</v>
@@ -1855,18 +1854,20 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="34"/>
+      <c r="M14" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N14" s="20" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:20" ht="15">
+    <row r="15" spans="1:20">
       <c r="A15" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>71</v>
@@ -1875,7 +1876,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -1884,9 +1885,11 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="34"/>
+      <c r="M15" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="N15" s="20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O15" s="21"/>
     </row>
@@ -8058,11 +8061,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -8077,6 +8075,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/DatasetRichter_onboard.xlsx
+++ b/DatasetRichter_onboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xander\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66376896-8355-41F0-91FC-990830051588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F212C-5B8F-495E-A025-E09DF6FEE8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41376" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="130">
   <si>
     <t>Metadata</t>
   </si>
@@ -372,6 +372,150 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2020.106769</t>
+  </si>
+  <si>
+    <t>JIM-1</t>
+  </si>
+  <si>
+    <t>JIM-3</t>
+  </si>
+  <si>
+    <t>JIM-43</t>
+  </si>
+  <si>
+    <t>JIM-5</t>
+  </si>
+  <si>
+    <t>JIM-7</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Ta0.1</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Ta0.3</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Ta0.43</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Ta0.5</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Ta0.7</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>JM-A05</t>
+  </si>
+  <si>
+    <t>JM-A06</t>
+  </si>
+  <si>
+    <t>JM-A10</t>
+  </si>
+  <si>
+    <t>JM-A08</t>
+  </si>
+  <si>
+    <t>JM-A15</t>
+  </si>
+  <si>
+    <t>JM-A175</t>
+  </si>
+  <si>
+    <t>Co2 Mo0.5 Ni2 V W0.5</t>
+  </si>
+  <si>
+    <t>Co2 Mo0.6 Ni2 V W0.6</t>
+  </si>
+  <si>
+    <t>Co2 Mo0.8 Ni2 V W0.8</t>
+  </si>
+  <si>
+    <t>Co2 Mo Ni2 V W</t>
+  </si>
+  <si>
+    <t>Co2 Mo1.5 Ni2 V W1.5</t>
+  </si>
+  <si>
+    <t>Co2 Mo1.75 Ni2 V W1.75</t>
+  </si>
+  <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>compressive yield stress</t>
+  </si>
+  <si>
+    <t>FCC+mu</t>
+  </si>
+  <si>
+    <t>BCC+FCC+mu</t>
+  </si>
+  <si>
+    <t>FCC+C14</t>
+  </si>
+  <si>
+    <t>Eutectic</t>
+  </si>
+  <si>
+    <t>hypoeutectic majority FCC</t>
+  </si>
+  <si>
+    <t>eutectic</t>
+  </si>
+  <si>
+    <t>hypereutectic majority laves</t>
+  </si>
+  <si>
+    <t>hypoeutectic primary FCC</t>
+  </si>
+  <si>
+    <t>hypereutectic primary BCC secondary FCC</t>
+  </si>
+  <si>
+    <t>hypereutectic primary BCC</t>
+  </si>
+  <si>
+    <t>ultimate compressive strength</t>
+  </si>
+  <si>
+    <t>hardness</t>
+  </si>
+  <si>
+    <t>compressive plastic strain</t>
+  </si>
+  <si>
+    <t>minimum ultimate compressive strength</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>minimum compressive plastic strain</t>
+  </si>
+  <si>
+    <t>minimum compressive ductility</t>
+  </si>
+  <si>
+    <t>compressive ductility</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>10.1016/j.matdes.2016.07.113</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1049,36 +1193,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1129,6 +1245,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1414,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1450,39 +1593,39 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1500,43 +1643,43 @@
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="59" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1547,19 +1690,19 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="43"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1604,7 +1747,7 @@
       <c r="N7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="32" t="s">
         <v>36</v>
       </c>
@@ -1617,35 +1760,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="66"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -1894,11 +2037,21 @@
       <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
@@ -1906,16 +2059,30 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="20"/>
+      <c r="M16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -1923,15 +2090,29 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="20"/>
+      <c r="M17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -1939,15 +2120,29 @@
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="20"/>
+      <c r="M18" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
@@ -1955,15 +2150,29 @@
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="20"/>
+      <c r="M19" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="37"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
@@ -1971,484 +2180,1279 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="20"/>
+      <c r="M20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="37"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H21" s="34"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="I21" s="36">
+        <v>298</v>
+      </c>
+      <c r="J21" s="33">
+        <v>925000000</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="37"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="34"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="36">
+        <v>298</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1411000000</v>
+      </c>
       <c r="K22" s="33"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="L22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="37"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="33"/>
+      <c r="I23" s="36">
+        <v>298</v>
+      </c>
+      <c r="J23" s="33">
+        <v>1431000000</v>
+      </c>
       <c r="K23" s="33"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="L23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="37"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H24" s="34"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="36">
+        <v>298</v>
+      </c>
+      <c r="J24" s="33">
+        <v>1371000000</v>
+      </c>
       <c r="K24" s="33"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="L24" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="37"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" s="34"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="33"/>
+      <c r="I25" s="36">
+        <v>298</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1320000000</v>
+      </c>
       <c r="K25" s="33"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="L25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="37"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="34"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="33"/>
+      <c r="I26" s="36">
+        <v>298</v>
+      </c>
+      <c r="J26" s="33">
+        <v>1607000000</v>
+      </c>
       <c r="K26" s="33"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="40"/>
+      <c r="L26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="37"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" s="34"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="33"/>
+      <c r="I27" s="36">
+        <v>298</v>
+      </c>
+      <c r="J27" s="33">
+        <v>3400000000</v>
+      </c>
       <c r="K27" s="33"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="40"/>
+      <c r="L27" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="37"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="34"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="36">
+        <v>298</v>
+      </c>
+      <c r="J28" s="33">
+        <v>2108000000</v>
+      </c>
       <c r="K28" s="33"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="40"/>
+      <c r="L28" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="37"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H29" s="34"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="33"/>
+      <c r="I29" s="36">
+        <v>298</v>
+      </c>
+      <c r="J29" s="33">
+        <v>2364000000</v>
+      </c>
       <c r="K29" s="33"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="40"/>
+      <c r="L29" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="37"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="A30" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" s="34"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="36">
+        <v>298</v>
+      </c>
+      <c r="J30" s="33">
+        <v>2208600000</v>
+      </c>
       <c r="K30" s="33"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="40"/>
+      <c r="L30" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="37"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="A31" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="34"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="33"/>
+      <c r="I31" s="36">
+        <v>298</v>
+      </c>
+      <c r="J31" s="33">
+        <v>2133000000</v>
+      </c>
       <c r="K31" s="33"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="40"/>
+      <c r="L31" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="37"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="A32" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" s="34"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="33"/>
+      <c r="I32" s="36">
+        <v>298</v>
+      </c>
+      <c r="J32" s="33">
+        <v>2313000000</v>
+      </c>
       <c r="K32" s="33"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="37"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="L32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="33"/>
+      <c r="I33" s="36">
+        <v>298</v>
+      </c>
+      <c r="J33" s="33">
+        <v>50</v>
+      </c>
       <c r="K33" s="33"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="37"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="L33" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" s="34"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="33"/>
+      <c r="I34" s="36">
+        <v>298</v>
+      </c>
+      <c r="J34" s="33">
+        <v>11.8</v>
+      </c>
       <c r="K34" s="33"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="37"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="L34" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="34"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="33"/>
+      <c r="I35" s="36">
+        <v>298</v>
+      </c>
+      <c r="J35" s="33">
+        <v>14.4</v>
+      </c>
       <c r="K35" s="33"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="37"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="L35" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="33"/>
+      <c r="I36" s="36">
+        <v>298</v>
+      </c>
+      <c r="J36" s="33">
+        <v>16</v>
+      </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="37"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="L36" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" s="34"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="33"/>
+      <c r="I37" s="36">
+        <v>298</v>
+      </c>
+      <c r="J37" s="33">
+        <v>13.9</v>
+      </c>
       <c r="K37" s="33"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="37"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="L37" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H38" s="34"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="36">
+        <v>298</v>
+      </c>
+      <c r="J38" s="33">
+        <v>9.4</v>
+      </c>
       <c r="K38" s="33"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="37"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="L38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H39" s="34"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="33"/>
+      <c r="I39" s="36">
+        <v>298</v>
+      </c>
+      <c r="J39" s="33">
+        <f>9.807*1000000*P39</f>
+        <v>3687432000</v>
+      </c>
       <c r="K39" s="33"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="37"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
+      <c r="L39" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" s="33">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H40" s="34"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="33"/>
+      <c r="I40" s="36">
+        <v>298</v>
+      </c>
+      <c r="J40" s="33">
+        <f t="shared" ref="J40:J44" si="0">9.807*1000000*P40</f>
+        <v>5491920000</v>
+      </c>
       <c r="K40" s="33"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="37"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="L40" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P40" s="33">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="34"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="33"/>
+      <c r="I41" s="36">
+        <v>298</v>
+      </c>
+      <c r="J41" s="33">
+        <f t="shared" si="0"/>
+        <v>5658639000</v>
+      </c>
       <c r="K41" s="33"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="37"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="L41" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P41" s="33">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" s="34"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="33"/>
+      <c r="I42" s="36">
+        <v>298</v>
+      </c>
+      <c r="J42" s="33">
+        <f t="shared" si="0"/>
+        <v>5001570000</v>
+      </c>
       <c r="K42" s="33"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="37"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="L42" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P42" s="33">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H43" s="34"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="33"/>
+      <c r="I43" s="36">
+        <v>298</v>
+      </c>
+      <c r="J43" s="33">
+        <f t="shared" si="0"/>
+        <v>5717481000</v>
+      </c>
       <c r="K43" s="33"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="37"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="L43" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P43" s="33">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" s="34"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="33"/>
+      <c r="I44" s="36">
+        <v>298</v>
+      </c>
+      <c r="J44" s="33">
+        <f t="shared" si="0"/>
+        <v>6541269000</v>
+      </c>
       <c r="K44" s="33"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="37"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="L44" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P44" s="33">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H45" s="34"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="33"/>
+      <c r="I45" s="36">
+        <v>298</v>
+      </c>
+      <c r="J45" s="33">
+        <f>P45-Q45</f>
+        <v>49.84868817881933</v>
+      </c>
       <c r="K45" s="33"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="37"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="L45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P45">
+        <v>49.816493358601299</v>
+      </c>
+      <c r="Q45">
+        <v>-3.2194820218032501E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" s="34"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="33"/>
+      <c r="I46" s="36">
+        <v>298</v>
+      </c>
+      <c r="J46" s="33">
+        <f t="shared" ref="J46:J50" si="1">P46-Q46</f>
+        <v>22.038365916418901</v>
+      </c>
       <c r="K46" s="33"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="37"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="L46" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P46">
+        <v>29.1948781070524</v>
+      </c>
+      <c r="Q46">
+        <v>7.1565121906335003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H47" s="34"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="33"/>
+      <c r="I47" s="36">
+        <v>298</v>
+      </c>
+      <c r="J47" s="33">
+        <f t="shared" si="1"/>
+        <v>25.3965956454728</v>
+      </c>
       <c r="K47" s="33"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="37"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="L47" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P47">
+        <v>38.377531684260099</v>
+      </c>
+      <c r="Q47">
+        <v>12.9809360387873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H48" s="34"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="33"/>
+      <c r="I48" s="36">
+        <v>298</v>
+      </c>
+      <c r="J48" s="33">
+        <f t="shared" si="1"/>
+        <v>25.501541325335502</v>
+      </c>
       <c r="K48" s="33"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="37"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="L48" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P48">
+        <v>44.779154102779501</v>
+      </c>
+      <c r="Q48">
+        <v>19.277612777443998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H49" s="34"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="33"/>
+      <c r="I49" s="36">
+        <v>298</v>
+      </c>
+      <c r="J49" s="33">
+        <f t="shared" si="1"/>
+        <v>21.566115694795599</v>
+      </c>
       <c r="K49" s="33"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="37"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
+      <c r="L49" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P49">
+        <v>46.563209309410198</v>
+      </c>
+      <c r="Q49">
+        <v>24.997093614614599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H50" s="34"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="33"/>
+      <c r="I50" s="36">
+        <v>298</v>
+      </c>
+      <c r="J50" s="33">
+        <f t="shared" si="1"/>
+        <v>16.686192289888499</v>
+      </c>
       <c r="K50" s="33"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="L50" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P50">
+        <v>47.770071283434298</v>
+      </c>
+      <c r="Q50">
+        <v>31.083878993545799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="37"/>
       <c r="B51" s="20"/>
       <c r="C51" s="34"/>
@@ -2464,7 +3468,7 @@
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:17">
       <c r="A52" s="37"/>
       <c r="B52" s="20"/>
       <c r="C52" s="34"/>
@@ -2480,7 +3484,7 @@
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:17">
       <c r="A53" s="37"/>
       <c r="B53" s="20"/>
       <c r="C53" s="34"/>
@@ -2496,7 +3500,7 @@
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:17">
       <c r="A54" s="37"/>
       <c r="B54" s="20"/>
       <c r="C54" s="34"/>
@@ -2512,7 +3516,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:17">
       <c r="A55" s="37"/>
       <c r="B55" s="20"/>
       <c r="C55" s="34"/>
@@ -2528,7 +3532,7 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:17">
       <c r="A56" s="37"/>
       <c r="B56" s="20"/>
       <c r="C56" s="34"/>
@@ -2544,7 +3548,7 @@
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:17">
       <c r="A57" s="37"/>
       <c r="B57" s="20"/>
       <c r="C57" s="34"/>
@@ -2560,7 +3564,7 @@
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:17">
       <c r="A58" s="37"/>
       <c r="B58" s="20"/>
       <c r="C58" s="34"/>
@@ -2576,7 +3580,7 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:17">
       <c r="A59" s="37"/>
       <c r="B59" s="20"/>
       <c r="C59" s="34"/>
@@ -2592,7 +3596,7 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:17">
       <c r="A60" s="37"/>
       <c r="B60" s="20"/>
       <c r="C60" s="34"/>
@@ -2608,7 +3612,7 @@
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:17">
       <c r="A61" s="37"/>
       <c r="B61" s="20"/>
       <c r="C61" s="34"/>
@@ -2624,7 +3628,7 @@
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:17">
       <c r="A62" s="37"/>
       <c r="B62" s="20"/>
       <c r="C62" s="34"/>
@@ -2640,7 +3644,7 @@
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:17">
       <c r="A63" s="37"/>
       <c r="B63" s="20"/>
       <c r="C63" s="34"/>
@@ -2656,7 +3660,7 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:17">
       <c r="A64" s="37"/>
       <c r="B64" s="20"/>
       <c r="C64" s="34"/>
@@ -8061,6 +9065,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -8075,11 +9084,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/DatasetRichter_onboard.xlsx
+++ b/DatasetRichter_onboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xander\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F212C-5B8F-495E-A025-E09DF6FEE8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B467B8-5141-4171-B6C9-BFD03A41E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41376" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20736" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
   <si>
     <t>Metadata</t>
   </si>
@@ -516,6 +516,33 @@
   </si>
   <si>
     <t>10.1016/j.matdes.2016.07.113</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2015.10.071</t>
+  </si>
+  <si>
+    <t>msea-ac</t>
+  </si>
+  <si>
+    <t>msea-an</t>
+  </si>
+  <si>
+    <t>Nb24 Sc25 Ti25 Zr25</t>
+  </si>
+  <si>
+    <t>AAM+A</t>
+  </si>
+  <si>
+    <t>HCP+BCC</t>
+  </si>
+  <si>
+    <t>Nb24 Sc25 Ti25 Zr26</t>
+  </si>
+  <si>
+    <t>HCP plate in BCC matrix</t>
+  </si>
+  <si>
+    <t>HCP plate in BCC matrix, annealed at 1000C for 24hr</t>
   </si>
 </sst>
 </file>
@@ -1196,6 +1223,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1245,33 +1299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1593,19 +1620,19 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1615,17 +1642,17 @@
       <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1643,43 +1670,43 @@
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="41" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1690,19 +1717,19 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="60"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1747,7 +1774,7 @@
       <c r="N7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="61"/>
+      <c r="O7" s="43"/>
       <c r="P7" s="32" t="s">
         <v>36</v>
       </c>
@@ -1760,35 +1787,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="56"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="P8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -3453,132 +3480,310 @@
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="37"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
+      <c r="A51" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H51" s="34"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="33"/>
+      <c r="I51" s="36">
+        <v>298</v>
+      </c>
+      <c r="J51" s="33">
+        <f>9.807*1000000*418</f>
+        <v>4099326000</v>
+      </c>
       <c r="K51" s="33"/>
-      <c r="L51" s="20"/>
+      <c r="L51" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
+      <c r="N51" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="37"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
+      <c r="A52" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H52" s="34"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="33"/>
+      <c r="I52" s="36">
+        <v>298</v>
+      </c>
+      <c r="J52" s="33">
+        <f>9.807*1000000*202</f>
+        <v>1981014000</v>
+      </c>
       <c r="K52" s="33"/>
-      <c r="L52" s="20"/>
+      <c r="L52" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
+      <c r="N52" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="37"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
+      <c r="A53" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H53" s="34"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="33"/>
+      <c r="I53" s="36">
+        <v>298</v>
+      </c>
+      <c r="J53" s="33">
+        <v>1250000000</v>
+      </c>
       <c r="K53" s="33"/>
-      <c r="L53" s="20"/>
+      <c r="L53" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
+      <c r="N53" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="37"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="A54" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H54" s="34"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="33"/>
+      <c r="I54" s="36">
+        <v>298</v>
+      </c>
+      <c r="J54" s="33">
+        <v>670000000</v>
+      </c>
       <c r="K54" s="33"/>
-      <c r="L54" s="20"/>
+      <c r="L54" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
+      <c r="N54" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="37"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
+      <c r="A55" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H55" s="34"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="33"/>
+      <c r="I55" s="36">
+        <v>298</v>
+      </c>
+      <c r="J55" s="33">
+        <v>1020000000</v>
+      </c>
       <c r="K55" s="33"/>
-      <c r="L55" s="20"/>
+      <c r="L55" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="N55" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="37"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="A56" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="34"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="33"/>
+      <c r="I56" s="36">
+        <v>298</v>
+      </c>
+      <c r="J56" s="33">
+        <v>310000000</v>
+      </c>
       <c r="K56" s="33"/>
-      <c r="L56" s="20"/>
+      <c r="L56" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
+      <c r="N56" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="37"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
+      <c r="A57" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H57" s="34"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="33"/>
+      <c r="I57" s="36">
+        <v>298</v>
+      </c>
+      <c r="J57" s="33">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="K57" s="33"/>
-      <c r="L57" s="20"/>
+      <c r="L57" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
+      <c r="N57" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="37"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
+      <c r="A58" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H58" s="34"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="33"/>
+      <c r="I58" s="36">
+        <v>298</v>
+      </c>
+      <c r="J58" s="33">
+        <v>20</v>
+      </c>
       <c r="K58" s="33"/>
-      <c r="L58" s="20"/>
+      <c r="L58" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
+      <c r="N58" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="37"/>
@@ -9065,11 +9270,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -9084,6 +9284,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/DatasetRichter_onboard.xlsx
+++ b/DatasetRichter_onboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xander\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B467B8-5141-4171-B6C9-BFD03A41E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A436D-5081-4FF5-B292-F8748BAD73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20736" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="148">
   <si>
     <t>Metadata</t>
   </si>
@@ -543,6 +543,33 @@
   </si>
   <si>
     <t>HCP plate in BCC matrix, annealed at 1000C for 24hr</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2016.01.153</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Nb0.25</t>
+  </si>
+  <si>
+    <t>JAC-1</t>
+  </si>
+  <si>
+    <t>JAC-2</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Nb0.26</t>
+  </si>
+  <si>
+    <t>FCC+FCC</t>
+  </si>
+  <si>
+    <t>hypoeutectic</t>
+  </si>
+  <si>
+    <t>FCC precipitates in hypoeutectic, 750C 7 days</t>
+  </si>
+  <si>
+    <t>ultimate compressive strain</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1300,6 +1327,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1584,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3786,100 +3816,234 @@
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="37"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
+      <c r="A59" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H59" s="34"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="33"/>
+      <c r="I59" s="36">
+        <v>298</v>
+      </c>
+      <c r="J59" s="33">
+        <f>9.807*1000000*414</f>
+        <v>4060098000</v>
+      </c>
       <c r="K59" s="33"/>
-      <c r="L59" s="20"/>
+      <c r="L59" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
+      <c r="N59" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="37"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
+      <c r="A60" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H60" s="34"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="33"/>
+      <c r="I60" s="36">
+        <v>298</v>
+      </c>
+      <c r="J60" s="33">
+        <f>9.807*1000000*466</f>
+        <v>4570062000</v>
+      </c>
       <c r="K60" s="33"/>
-      <c r="L60" s="20"/>
+      <c r="L60" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
+      <c r="N60" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="37"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
+      <c r="A61" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H61" s="34"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="33"/>
+      <c r="I61" s="36">
+        <v>298</v>
+      </c>
+      <c r="J61" s="67">
+        <v>2000000000</v>
+      </c>
       <c r="K61" s="33"/>
-      <c r="L61" s="20"/>
+      <c r="L61" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
+      <c r="N61" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="37"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
+      <c r="A62" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="34"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="33"/>
+      <c r="I62" s="36">
+        <v>298</v>
+      </c>
+      <c r="J62" s="33">
+        <v>2250000000</v>
+      </c>
       <c r="K62" s="33"/>
-      <c r="L62" s="20"/>
+      <c r="L62" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
+      <c r="N62" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="37"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
+      <c r="A63" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H63" s="34"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="33"/>
+      <c r="I63" s="36">
+        <v>298</v>
+      </c>
+      <c r="J63" s="33">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="K63" s="33"/>
-      <c r="L63" s="20"/>
+      <c r="L63" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
+      <c r="N63" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="37"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
+      <c r="A64" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H64" s="34"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="33"/>
+      <c r="I64" s="36">
+        <v>298</v>
+      </c>
+      <c r="J64" s="33">
+        <v>0.36</v>
+      </c>
       <c r="K64" s="33"/>
-      <c r="L64" s="20"/>
+      <c r="L64" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
+      <c r="N64" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="37"/>

--- a/DatasetRichter_onboard.xlsx
+++ b/DatasetRichter_onboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xander\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A436D-5081-4FF5-B292-F8748BAD73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04913E6A-1B49-4FD7-B2CF-CAA048F2E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20736" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="163">
   <si>
     <t>Metadata</t>
   </si>
@@ -570,6 +570,51 @@
   </si>
   <si>
     <t>ultimate compressive strain</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2015.09.153</t>
+  </si>
+  <si>
+    <t>Cr Fe Co Ni Nb0.1</t>
+  </si>
+  <si>
+    <t>Cr Fe Co Ni Nb0.25</t>
+  </si>
+  <si>
+    <t>Cr Fe Co Ni Nb0.5</t>
+  </si>
+  <si>
+    <t>Cr Fe Co Ni Nb0.8</t>
+  </si>
+  <si>
+    <t>AC-25</t>
+  </si>
+  <si>
+    <t>AC-80</t>
+  </si>
+  <si>
+    <t>AC-50</t>
+  </si>
+  <si>
+    <t>AC-10</t>
+  </si>
+  <si>
+    <t>FCC+laves</t>
+  </si>
+  <si>
+    <t>hyper-eutectic</t>
+  </si>
+  <si>
+    <t>divorced eutectic</t>
+  </si>
+  <si>
+    <t>ultimate comporessive strain</t>
+  </si>
+  <si>
+    <t>minimum comporessive strain</t>
+  </si>
+  <si>
+    <t>minimum compressive strength</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3996,7 +4041,7 @@
         <v>298</v>
       </c>
       <c r="J63" s="33">
-        <v>0.32500000000000001</v>
+        <v>325</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="20" t="s">
@@ -4034,7 +4079,7 @@
         <v>298</v>
       </c>
       <c r="J64" s="33">
-        <v>0.36</v>
+        <v>36</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="20" t="s">
@@ -4046,196 +4091,464 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="37"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
+      <c r="A65" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H65" s="34"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="33"/>
+      <c r="I65" s="36">
+        <v>298</v>
+      </c>
+      <c r="J65" s="33">
+        <f>9.807*1000000*320</f>
+        <v>3138240000</v>
+      </c>
       <c r="K65" s="33"/>
-      <c r="L65" s="20"/>
+      <c r="L65" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
+      <c r="N65" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="37"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
+      <c r="A66" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H66" s="34"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="33"/>
+      <c r="I66" s="36">
+        <v>298</v>
+      </c>
+      <c r="J66" s="33">
+        <f>9.807*1000000*413</f>
+        <v>4050291000</v>
+      </c>
       <c r="K66" s="33"/>
-      <c r="L66" s="20"/>
+      <c r="L66" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
+      <c r="N66" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="37"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
+      <c r="A67" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H67" s="34"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="33"/>
+      <c r="I67" s="36">
+        <v>298</v>
+      </c>
+      <c r="J67" s="33">
+        <f>9.807*1000000*538</f>
+        <v>5276166000</v>
+      </c>
       <c r="K67" s="33"/>
-      <c r="L67" s="20"/>
+      <c r="L67" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
+      <c r="N67" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="37"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
+      <c r="A68" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H68" s="34"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="33"/>
+      <c r="I68" s="36">
+        <v>298</v>
+      </c>
+      <c r="J68" s="33">
+        <f>9.807*1000000*712</f>
+        <v>6982584000</v>
+      </c>
       <c r="K68" s="33"/>
-      <c r="L68" s="20"/>
+      <c r="L68" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
+      <c r="N68" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="37"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
+      <c r="A69" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H69" s="34"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="33"/>
+      <c r="I69" s="36">
+        <v>298</v>
+      </c>
+      <c r="J69" s="33">
+        <v>2710000000</v>
+      </c>
       <c r="K69" s="33"/>
-      <c r="L69" s="20"/>
+      <c r="L69" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
+      <c r="N69" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="37"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
+      <c r="A70" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H70" s="34"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="33"/>
+      <c r="I70" s="36">
+        <v>298</v>
+      </c>
+      <c r="J70" s="33">
+        <v>2017000000</v>
+      </c>
       <c r="K70" s="33"/>
-      <c r="L70" s="20"/>
+      <c r="L70" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
+      <c r="N70" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="37"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
+      <c r="A71" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H71" s="34"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="33"/>
+      <c r="I71" s="36">
+        <v>298</v>
+      </c>
+      <c r="J71" s="33">
+        <v>2306000000</v>
+      </c>
       <c r="K71" s="33"/>
-      <c r="L71" s="20"/>
+      <c r="L71" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
+      <c r="N71" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="37"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
+      <c r="A72" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H72" s="34"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="33"/>
+      <c r="I72" s="36">
+        <v>298</v>
+      </c>
+      <c r="J72" s="33">
+        <v>2480000000</v>
+      </c>
       <c r="K72" s="33"/>
-      <c r="L72" s="20"/>
+      <c r="L72" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
+      <c r="N72" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="37"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
+      <c r="A73" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H73" s="34"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="33"/>
+      <c r="I73" s="36">
+        <v>298</v>
+      </c>
+      <c r="J73" s="33">
+        <v>50</v>
+      </c>
       <c r="K73" s="33"/>
-      <c r="L73" s="20"/>
+      <c r="L73" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
+      <c r="N73" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="37"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
+      <c r="A74" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H74" s="34"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="33"/>
+      <c r="I74" s="36">
+        <v>298</v>
+      </c>
+      <c r="J74" s="33">
+        <v>38.5</v>
+      </c>
       <c r="K74" s="33"/>
-      <c r="L74" s="20"/>
+      <c r="L74" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
+      <c r="N74" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="37"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
+      <c r="A75" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H75" s="34"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="33"/>
+      <c r="I75" s="36">
+        <v>298</v>
+      </c>
+      <c r="J75" s="33">
+        <v>23.5</v>
+      </c>
       <c r="K75" s="33"/>
-      <c r="L75" s="20"/>
+      <c r="L75" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="N75" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="37"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
+      <c r="A76" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="H76" s="34"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="33"/>
+      <c r="I76" s="36">
+        <v>298</v>
+      </c>
+      <c r="J76" s="33">
+        <v>12.5</v>
+      </c>
       <c r="K76" s="33"/>
-      <c r="L76" s="20"/>
+      <c r="L76" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
+      <c r="N76" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="37"/>

--- a/DatasetRichter_onboard.xlsx
+++ b/DatasetRichter_onboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xander\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04913E6A-1B49-4FD7-B2CF-CAA048F2E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87920B9E-3CFD-44E0-A771-9B8C4EA20408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20736" yWindow="-4248" windowWidth="20832" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="158">
   <si>
     <t>Metadata</t>
   </si>
@@ -527,24 +527,15 @@
     <t>msea-an</t>
   </si>
   <si>
-    <t>Nb24 Sc25 Ti25 Zr25</t>
-  </si>
-  <si>
     <t>AAM+A</t>
   </si>
   <si>
     <t>HCP+BCC</t>
   </si>
   <si>
-    <t>Nb24 Sc25 Ti25 Zr26</t>
-  </si>
-  <si>
     <t>HCP plate in BCC matrix</t>
   </si>
   <si>
-    <t>HCP plate in BCC matrix, annealed at 1000C for 24hr</t>
-  </si>
-  <si>
     <t>10.1016/j.jallcom.2016.01.153</t>
   </si>
   <si>
@@ -557,21 +548,9 @@
     <t>JAC-2</t>
   </si>
   <si>
-    <t>Co Cr Fe Ni Nb0.26</t>
-  </si>
-  <si>
-    <t>FCC+FCC</t>
-  </si>
-  <si>
     <t>hypoeutectic</t>
   </si>
   <si>
-    <t>FCC precipitates in hypoeutectic, 750C 7 days</t>
-  </si>
-  <si>
-    <t>ultimate compressive strain</t>
-  </si>
-  <si>
     <t>10.1016/j.jallcom.2015.09.153</t>
   </si>
   <si>
@@ -608,13 +587,19 @@
     <t>divorced eutectic</t>
   </si>
   <si>
-    <t>ultimate comporessive strain</t>
-  </si>
-  <si>
-    <t>minimum comporessive strain</t>
-  </si>
-  <si>
     <t>minimum compressive strength</t>
+  </si>
+  <si>
+    <t>Nb25 Sc25 Ti25 Zr25</t>
+  </si>
+  <si>
+    <t>FCC+laves+FCC</t>
+  </si>
+  <si>
+    <t>FCC precipitates in hypoeutectic; anneal at 750C for 7 days</t>
+  </si>
+  <si>
+    <t>HCP plate in BCC matrix; annealed at 1000C for 24hr</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3559,16 +3544,16 @@
         <v>131</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>121</v>
@@ -3598,16 +3583,16 @@
         <v>132</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F52" s="34" t="s">
         <v>121</v>
@@ -3637,16 +3622,16 @@
         <v>131</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F53" s="34" t="s">
         <v>120</v>
@@ -3675,16 +3660,16 @@
         <v>132</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>120</v>
@@ -3713,16 +3698,16 @@
         <v>131</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F55" s="34" t="s">
         <v>109</v>
@@ -3751,16 +3736,16 @@
         <v>132</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F56" s="34" t="s">
         <v>109</v>
@@ -3789,19 +3774,19 @@
         <v>131</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G57" s="34" t="s">
         <v>29</v>
@@ -3827,19 +3812,19 @@
         <v>132</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>29</v>
@@ -3849,7 +3834,7 @@
         <v>298</v>
       </c>
       <c r="J58" s="33">
-        <v>20</v>
+        <v>28.2</v>
       </c>
       <c r="K58" s="33"/>
       <c r="L58" s="20" t="s">
@@ -3862,19 +3847,19 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D59" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>121</v>
@@ -3896,24 +3881,24 @@
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>121</v>
@@ -3935,24 +3920,24 @@
       </c>
       <c r="M60" s="20"/>
       <c r="N60" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>120</v>
@@ -3973,24 +3958,24 @@
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>120</v>
@@ -4011,27 +3996,27 @@
       </c>
       <c r="M62" s="20"/>
       <c r="N62" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G63" s="34" t="s">
         <v>29</v>
@@ -4041,7 +4026,7 @@
         <v>298</v>
       </c>
       <c r="J63" s="33">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="20" t="s">
@@ -4049,27 +4034,27 @@
       </c>
       <c r="M63" s="20"/>
       <c r="N63" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G64" s="34" t="s">
         <v>29</v>
@@ -4087,24 +4072,24 @@
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F65" s="34" t="s">
         <v>121</v>
@@ -4126,24 +4111,24 @@
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="37" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B66" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="34" t="s">
         <v>150</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>121</v>
@@ -4165,24 +4150,24 @@
       </c>
       <c r="M66" s="20"/>
       <c r="N66" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>121</v>
@@ -4204,24 +4189,24 @@
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D68" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>121</v>
@@ -4243,27 +4228,27 @@
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D69" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>29</v>
@@ -4281,24 +4266,24 @@
       </c>
       <c r="M69" s="20"/>
       <c r="N69" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="37" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B70" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="34" t="s">
         <v>150</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="D70" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F70" s="34" t="s">
         <v>120</v>
@@ -4319,24 +4304,24 @@
       </c>
       <c r="M70" s="20"/>
       <c r="N70" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F71" s="34" t="s">
         <v>120</v>
@@ -4357,24 +4342,24 @@
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>120</v>
@@ -4395,27 +4380,27 @@
       </c>
       <c r="M72" s="20"/>
       <c r="N72" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>29</v>
@@ -4433,27 +4418,27 @@
       </c>
       <c r="M73" s="20"/>
       <c r="N73" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="37" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B74" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>150</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="G74" s="34" t="s">
         <v>29</v>
@@ -4463,7 +4448,7 @@
         <v>298</v>
       </c>
       <c r="J74" s="33">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="K74" s="33"/>
       <c r="L74" s="20" t="s">
@@ -4471,27 +4456,27 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D75" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>29</v>
@@ -4501,7 +4486,7 @@
         <v>298</v>
       </c>
       <c r="J75" s="33">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="K75" s="33"/>
       <c r="L75" s="20" t="s">
@@ -4509,27 +4494,27 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D76" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F76" s="34" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>29</v>
@@ -4539,7 +4524,7 @@
         <v>298</v>
       </c>
       <c r="J76" s="33">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K76" s="33"/>
       <c r="L76" s="20" t="s">
@@ -4547,7 +4532,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:14">
